--- a/ig/feature/sos-medecins/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/ig/feature/sos-medecins/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-07T15:58:12+00:00</t>
+    <t>2023-11-07T16:22:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/feature/sos-medecins/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/ig/feature/sos-medecins/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-07T16:22:34+00:00</t>
+    <t>2023-11-08T09:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/feature/sos-medecins/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/ig/feature/sos-medecins/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T09:39:39+00:00</t>
+    <t>2023-11-08T15:44:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -448,7 +448,7 @@
     <t>type de créneau : public, SNP</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-sos-valueset-typecreneau</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-sos-valueset-typecreneau</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -800,7 +800,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-sos-valueset-typeconsultation</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-sos-valueset-typeconsultation</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -860,7 +860,7 @@
     <t>Slot.appointmentType.coding</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-sos-valueset-appointmentreason</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-sos-valueset-appointmentreason</t>
   </si>
   <si>
     <t>Slot.appointmentType.text</t>
@@ -1281,7 +1281,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="80.02734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="80.98046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
